--- a/public/DataProducts/dataproducts.xlsx
+++ b/public/DataProducts/dataproducts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,57 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>2021-08-31T14:17:13.000000Z</t>
+  </si>
   <si>
     <t>witer</t>
   </si>
   <si>
+    <t>all.jpg</t>
+  </si>
+  <si>
+    <t>2021-08-31T14:17:56.000000Z</t>
+  </si>
+  <si>
+    <t>Papse</t>
+  </si>
+  <si>
     <t>workhardanywhere___By0Y5kCA8mK___.jpg</t>
   </si>
   <si>
-    <t>2021-08-07T00:52:23.000000Z</t>
-  </si>
-  <si>
-    <t>2021-08-08T01:10:59.000000Z</t>
+    <t>2021-08-31T14:19:10.000000Z</t>
   </si>
   <si>
     <t>seven up</t>
   </si>
   <si>
-    <t>2021-08-07T00:53:01.000000Z</t>
-  </si>
-  <si>
-    <t>2021-08-08T00:57:16.000000Z</t>
-  </si>
-  <si>
-    <t>ارز بلبن</t>
+    <t>preview5.jpg</t>
+  </si>
+  <si>
+    <t>2021-08-31T14:19:59.000000Z</t>
+  </si>
+  <si>
+    <t>2021-08-31T14:40:51.000000Z</t>
+  </si>
+  <si>
+    <t>sewwtes</t>
   </si>
   <si>
     <t>0ffb9fe6da.jpg</t>
   </si>
   <si>
-    <t>2021-08-07T09:08:57.000000Z</t>
-  </si>
-  <si>
-    <t>pepise</t>
-  </si>
-  <si>
-    <t>2021-08-07T09:25:12.000000Z</t>
-  </si>
-  <si>
-    <t>ام على</t>
-  </si>
-  <si>
-    <t>preview8.jpg</t>
-  </si>
-  <si>
-    <t>2021-08-08T01:54:46.000000Z</t>
-  </si>
-  <si>
-    <t>sopeu</t>
-  </si>
-  <si>
-    <t>5rop</t>
+    <t>2021-08-31T14:20:35.000000Z</t>
+  </si>
+  <si>
+    <t>2021-08-31T14:39:31.000000Z</t>
   </si>
 </sst>
 </file>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -426,115 +426,87 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
